--- a/public/data/yield_loss/yield_table_zimbabwe.xlsx
+++ b/public/data/yield_loss/yield_table_zimbabwe.xlsx
@@ -2394,7 +2394,7 @@
         <v>0.37</v>
       </c>
       <c r="F14" t="n">
-        <v>85.65</v>
+        <v>83.47</v>
       </c>
       <c r="G14" t="n">
         <v>3.37</v>
@@ -2409,10 +2409,10 @@
         <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>7.18</v>
+        <v>7.04</v>
       </c>
       <c r="L14" t="n">
-        <v>90.96</v>
+        <v>90.52</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0.13</v>
       </c>
       <c r="F15" t="n">
-        <v>44.26</v>
+        <v>43.11</v>
       </c>
       <c r="G15" t="n">
         <v>1.08</v>
@@ -2489,10 +2489,10 @@
         <v>0.45</v>
       </c>
       <c r="K15" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="L15" t="n">
-        <v>26.48</v>
+        <v>26.27</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0.09</v>
       </c>
       <c r="F33" t="n">
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
       <c r="G33" t="n">
         <v>0.03</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>37.07</v>
+        <v>37.25</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>2.79</v>
       </c>
       <c r="U33" t="n">
-        <v>4.02</v>
+        <v>4.15</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>0.07</v>
       </c>
       <c r="F56" t="n">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="G56" t="n">
         <v>0.01</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>51.12</v>
+        <v>51.11</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
